--- a/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__C_Stationarygenerator_alpha_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-14 + x + 2y</t>
-  </si>
-  <si>
-    <t>-5.084293056239593</t>
+    <t>-12.85 + x + 2y</t>
+  </si>
+  <si>
+    <t>-1.1500000000000004</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.5416861885182938</t>
-  </si>
-  <si>
-    <t>-0.07759423029098622</t>
-  </si>
-  <si>
-    <t>-0.45216078248782154</t>
-  </si>
-  <si>
-    <t>-2 + x - 2y</t>
-  </si>
-  <si>
-    <t>-7.61098921201671</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>3.3499999999999996 + x - 2y</t>
+  </si>
+  <si>
+    <t>-5.35</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9614613706904978</t>
-  </si>
-  <si>
-    <t>-0.8967724718880266</t>
-  </si>
-  <si>
-    <t>-0.9928378352336027</t>
-  </si>
-  <si>
-    <t>-1 - 2x + y</t>
-  </si>
-  <si>
-    <t>-0.6730436927994186</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>-7.45 - 2x + y</t>
+  </si>
+  <si>
+    <t>-6.45</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.8934192024608484</t>
-  </si>
-  <si>
-    <t>0.3023047759186557</t>
-  </si>
-  <si>
-    <t>0.5767848281743381</t>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.6523588658718489</t>
-  </si>
-  <si>
-    <t>3.631674038944279</t>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>2.6827830839950013</t>
+    <t>1.7800000000000002</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>4.274258522272627</t>
-  </si>
-  <si>
-    <t>-5.2040093370012945</t>
+    <t>-6.1</t>
+  </si>
+  <si>
+    <t>6.200000000000001</t>
   </si>
   <si>
     <t>vec_alpha</t>
